--- a/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>G H S SundekereSakaleshapura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>D G H SNuggehalliC R Patana</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>G H S HirisaveChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -564,6 +584,11 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>G H S PeteChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -591,6 +616,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Dr. A H SJavagalArsikere</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Hasssan</t>
         </is>
       </c>
@@ -618,6 +648,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G H P SKabbinagaddeSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -645,6 +680,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>G J G BanavaraArsikere</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -672,6 +712,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHanumidiBelur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -699,6 +744,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>TGTG H P SKattimallenahallyArakalgud</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -728,6 +778,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>N G H SC R Patna</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -755,6 +810,11 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>TGTG H P SchoolChandanahalliBelur</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -782,6 +842,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>H M S G J C (High School Section)BasavapatnaArakalgud</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -809,6 +874,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>G H S A CholenahallyChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -836,6 +906,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>G H P SAgraharaSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -863,6 +938,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>Sri SwarnagowriHigh SchoolMadaluArasikere</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -890,6 +970,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>G G H SSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -917,6 +1002,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G H P S EachalbeedSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -944,6 +1034,11 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>GHSAnughattaBelur</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -971,6 +1066,11 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>G H S HallymysoreHolenarsipura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1000,6 +1100,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>TGTG H P SChikkamedurBelur</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1027,6 +1132,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Govt. High SchoolSanthemarurArakalagud</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1054,6 +1164,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S MurundiArsikere</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1081,6 +1196,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>G H SKalkereChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1108,6 +1228,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S B H S KalaleSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1135,6 +1260,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>G H S Bylahally</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Hasssan</t>
         </is>
       </c>
@@ -1162,6 +1292,11 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>G B J C Arkalgud</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1189,6 +1324,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>G J C (High School Section) Santhemaidana Gandasi Hand PostArasikere</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1216,6 +1356,11 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>G H S HarihalliAlur</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1243,6 +1388,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S HanchoorAlur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1270,6 +1420,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Govt. P U College for boys (High School)Holenarasipura</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1299,6 +1454,11 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>Bhoruka English Medium SchoolShivapur</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -1326,6 +1486,11 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>G H S DammaningalaChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1355,6 +1520,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>G H SBagurC R Patna</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1382,6 +1552,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>G J C NuggehallyC R Patna</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1409,6 +1584,11 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>Hemavathi High SchoolHonnvally</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>Arakalgud. Hassan</t>
         </is>
       </c>
@@ -1436,6 +1616,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>B S H SBallupeteS K Pura</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1463,6 +1648,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>S N High SchoolS BelagolaC R Patna</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1490,6 +1680,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Sri Maruthi High SchoolBantenahalliBelur</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1519,6 +1714,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>S S P U CollegeLakshmipuraArasikere</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1543,7 +1743,8 @@
           <t>PAVITHRA Y M</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
         <is>
           <t xml:space="preserve">PAVITHRA Y </t>
         </is>
@@ -1561,6 +1762,11 @@
         </is>
       </c>
       <c r="F43" t="inlineStr">
+        <is>
+          <t>G H SHebbaleArakalagud</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>Hassan</t>
         </is>
@@ -1589,6 +1795,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G G H S K H B Holenarasipur</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1616,6 +1827,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>G H S KalyadiArsikere</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1645,6 +1861,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>G H S Banukuppe Holenarasipura</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1672,6 +1893,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>G P U CollegeSanthepete</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1699,6 +1925,11 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>Govt. Junior CollegeBelur</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1726,6 +1957,11 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>GPUCHigh School SectionHalekoteHolenarasipura</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1753,6 +1989,11 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>G H SDoddagenigere</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1780,6 +2021,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G H P SAchangiSakaleshpur</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1809,6 +2055,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>G J C BelavadiArakalgud</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1836,6 +2087,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>G H P S LakkurArkalgud</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1865,6 +2121,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>G H S MaranahallyHeggaddeSakleshapura</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1894,6 +2155,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>G H S GulasindaChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1923,6 +2189,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Sri Jenukallu SiddeshwaraHigh SchoolYadapuraArsikere</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1950,6 +2221,11 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>SSRHSShukravarasantheSakleshpur</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -1977,6 +2253,11 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>G H S KallusadarahalliArsikere</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2004,6 +2285,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>Sri DVS High School AnathiChannarayapatna</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2031,6 +2317,11 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>G J C HagareBelur</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2056,7 +2347,8 @@
           <t>SHAKEEL AHMED</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
         <is>
           <t>G H S Hanumanthapura Hassan</t>
         </is>
@@ -2085,6 +2377,11 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>G G H S Alur</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2112,6 +2409,11 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>G G PU College (Bifurcated)R C Road</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2141,6 +2443,11 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>G H S ChikkakanagaluAlur</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2168,6 +2475,11 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
+          <t>M R H S BikkoduBelur</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2195,6 +2507,11 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>Govt. High SchoolHampanakuppeAlur</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2222,6 +2539,11 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>G H S KundurAlur</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2249,6 +2571,11 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>G P U C For BoysR C Road</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2276,6 +2603,11 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>G H S HadavanahallyHolenarshipura</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2303,6 +2635,11 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>G H S Gavenahally</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2330,6 +2667,11 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>Buddha High SchoolNeharu NagarBelur – 573115</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2359,6 +2701,11 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>Bhoruk English Medium High SchoolShivapur</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>Koppal</t>
         </is>
       </c>
@@ -2388,6 +2735,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>G H S AdaravallySakaleshapur</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -2416,6 +2768,11 @@
         </is>
       </c>
       <c r="F74" t="inlineStr">
+        <is>
+          <t>R J C BychananhallyArkalgud</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>Hassan</t>
         </is>

--- a/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,7 +621,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hasssan</t>
+          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hasssan</t>
+          <t>Hassan</t>
         </is>
       </c>
     </row>
@@ -1743,7 +1743,6 @@
           <t>PAVITHRA Y M</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
           <t xml:space="preserve">PAVITHRA Y </t>
@@ -2347,10 +2346,9 @@
           <t>SHAKEEL AHMED</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>G H S Hanumanthapura Hassan</t>
+          <t>Hassan</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
+++ b/mathTransformed/HMPSTT_(2015-10-26)_71_3.xlsx
@@ -1589,7 +1589,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Arakalgud. Hassan</t>
+          <t>Hassan</t>
         </is>
       </c>
     </row>
